--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H2">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I2">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J2">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>4.173145864056334</v>
+        <v>13.71859460732222</v>
       </c>
       <c r="R2">
-        <v>37.558312776507</v>
+        <v>123.4673514659</v>
       </c>
       <c r="S2">
-        <v>0.0007828933924254144</v>
+        <v>0.002866690895047208</v>
       </c>
       <c r="T2">
-        <v>0.0007828933924254143</v>
+        <v>0.002866690895047207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H3">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I3">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J3">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>3.621768511095111</v>
+        <v>18.07684484371556</v>
       </c>
       <c r="R3">
-        <v>32.595916599856</v>
+        <v>162.69160359344</v>
       </c>
       <c r="S3">
-        <v>0.0006794535174657673</v>
+        <v>0.003777407818217868</v>
       </c>
       <c r="T3">
-        <v>0.000679453517465767</v>
+        <v>0.003777407818217867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03565433333333334</v>
+        <v>0.1779566666666667</v>
       </c>
       <c r="H4">
-        <v>0.106963</v>
+        <v>0.5338700000000001</v>
       </c>
       <c r="I4">
-        <v>0.002412342638581826</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="J4">
-        <v>0.002412342638581825</v>
+        <v>0.01192558037548992</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>5.063870489153778</v>
+        <v>25.27461400712889</v>
       </c>
       <c r="R4">
-        <v>45.57483440238401</v>
+        <v>227.47152606416</v>
       </c>
       <c r="S4">
-        <v>0.0009499957286906442</v>
+        <v>0.005281481662224848</v>
       </c>
       <c r="T4">
-        <v>0.000949995728690644</v>
+        <v>0.005281481662224847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>24.199846</v>
       </c>
       <c r="I5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J5">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>944.1534665790992</v>
+        <v>621.8515309600244</v>
       </c>
       <c r="R5">
-        <v>8497.381199211894</v>
+        <v>5596.663778640221</v>
       </c>
       <c r="S5">
-        <v>0.1771257306836251</v>
+        <v>0.1299445149376151</v>
       </c>
       <c r="T5">
-        <v>0.1771257306836251</v>
+        <v>0.1299445149376151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.199846</v>
       </c>
       <c r="I6">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J6">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>819.4070867136392</v>
@@ -818,10 +818,10 @@
         <v>7374.663780422752</v>
       </c>
       <c r="S6">
-        <v>0.1537229741763963</v>
+        <v>0.1712264923671837</v>
       </c>
       <c r="T6">
-        <v>0.1537229741763963</v>
+        <v>0.1712264923671837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.199846</v>
       </c>
       <c r="I7">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="J7">
-        <v>0.5457805068380079</v>
+        <v>0.540575811616083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>1145.67547658037</v>
@@ -880,10 +880,10 @@
         <v>10311.07928922333</v>
       </c>
       <c r="S7">
-        <v>0.2149318019779865</v>
+        <v>0.2394048043112842</v>
       </c>
       <c r="T7">
-        <v>0.2149318019779865</v>
+        <v>0.2394048043112842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H8">
         <v>20.033078</v>
       </c>
       <c r="I8">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J8">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>781.5876200183048</v>
+        <v>514.7801446398289</v>
       </c>
       <c r="R8">
-        <v>7034.288580164744</v>
+        <v>4633.02130175846</v>
       </c>
       <c r="S8">
-        <v>0.1466279404667309</v>
+        <v>0.1075704615400201</v>
       </c>
       <c r="T8">
-        <v>0.1466279404667309</v>
+        <v>0.1075704615400201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H9">
         <v>20.033078</v>
       </c>
       <c r="I9">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J9">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>678.3202703805264</v>
+        <v>678.3202703805262</v>
       </c>
       <c r="R9">
         <v>6104.882433424737</v>
       </c>
       <c r="S9">
-        <v>0.127254707822014</v>
+        <v>0.1417444423926581</v>
       </c>
       <c r="T9">
-        <v>0.1272547078220139</v>
+        <v>0.141744442392658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.677692666666668</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H10">
         <v>20.033078</v>
       </c>
       <c r="I10">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="J10">
-        <v>0.4518071505234103</v>
+        <v>0.4474986080084269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
-        <v>948.4112496014118</v>
+        <v>948.4112496014116</v>
       </c>
       <c r="R10">
-        <v>8535.701246412706</v>
+        <v>8535.701246412704</v>
       </c>
       <c r="S10">
-        <v>0.1779245022346654</v>
+        <v>0.1981837040757488</v>
       </c>
       <c r="T10">
-        <v>0.1779245022346654</v>
+        <v>0.1981837040757488</v>
       </c>
     </row>
   </sheetData>
